--- a/biology/Botanique/Bêta-Amanitine/Bêta-Amanitine.xlsx
+++ b/biology/Botanique/Bêta-Amanitine/Bêta-Amanitine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%AAta-Amanitine</t>
+          <t>Bêta-Amanitine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La β-amanitine est un peptide cyclique constitué de huit acides aminés. Elle fait partie des amatoxines, un groupe de toxines isolées dans un certain nombre de champignons du genre Amanita, tels que l'amanite phalloïde ou encore l'amanite vireuse.
